--- a/biology/Botanique/Karneval_(pomme)/Karneval_(pomme).xlsx
+++ b/biology/Botanique/Karneval_(pomme)/Karneval_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karneval est un cultivar de pommier domestique résistant aux races communes de tavelure.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">UEB 3741/1
 </t>
@@ -542,7 +556,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Community Plant Variety EU 29620 13.04.2011
 </t>
@@ -573,7 +589,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Institut de Botanique Expérimentale, Prague (Strizovice), CZ, EU
 </t>
@@ -604,7 +622,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cultivar sélectionné du croisement Vanda x Cripps Pink</t>
         </is>
@@ -634,7 +654,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Utilisation : pomme de table
 Calibre : moyen
@@ -667,9 +689,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Floraison: précoce pour les fleurs centrales des bouquets, mi-précoce pour les autres[1]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Floraison: précoce pour les fleurs centrales des bouquets, mi-précoce pour les autres
 Variété diploïde
 S-génotype: issu de S5S7 x S2S23
 Bons pollinisateurs: Pinova, Red Topaz, Santana, ...</t>
@@ -700,10 +724,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Récolte : début octobre
-Conservation : sur fruitier ordinaire jusque février[2]</t>
+Conservation : sur fruitier ordinaire jusque février</t>
         </is>
       </c>
     </row>
